--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Desktop\exc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6DC86F-1A74-41F0-B384-C26D074A5BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B5356-CB76-4C2B-8974-15F9991B7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5482B8D-CACF-4654-A787-884FCC8D7002}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Gomez</t>
+  </si>
+  <si>
+    <t>Francisco</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DEA7BD-D0DF-49EB-AA2A-18EF5F5A0035}">
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +521,23 @@
         <v>616276378</v>
       </c>
     </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>677645344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Desktop\exc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B5356-CB76-4C2B-8974-15F9991B7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C665209-66CA-4042-AFB2-776C01D6144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5482B8D-CACF-4654-A787-884FCC8D7002}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Nombre</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>Francisco</t>
+  </si>
+  <si>
+    <t>nvofdn</t>
+  </si>
+  <si>
+    <t>jo fbdou</t>
+  </si>
+  <si>
+    <t>jibob</t>
+  </si>
+  <si>
+    <t>i hibh</t>
+  </si>
+  <si>
+    <t>hibib</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DEA7BD-D0DF-49EB-AA2A-18EF5F5A0035}">
-  <dimension ref="B3:F8"/>
+  <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,6 +553,23 @@
         <v>677645344</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
